--- a/Assets/外部修改檔案/Exam02.xlsx
+++ b/Assets/外部修改檔案/Exam02.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term Care\Assets\外部修改檔案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F3898C-4343-4EE5-9458-67B6BF439D51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C7E40-C85E-4650-9DF8-4D446274ED9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>醫療教案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,18 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>將案主移到無手扶手椅上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>找出正確按壓位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>握拳向內壓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>豆子擠出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,18 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未將案主移至正確位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未正確找出按壓位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未正確向內擠壓動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未將豆子擠出就完成操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +112,38 @@
   </si>
   <si>
     <t>未洗手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立於後側將案主移到無手扶手椅上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未於正確位置將案主移至正確位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要操作的次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握拳向內壓數次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成擠壓動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未小心抱住案主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案主未掉落於地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +284,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -278,7 +300,7 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -562,17 +584,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.73046875" customWidth="1"/>
     <col min="2" max="2" width="34.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.59765625" customWidth="1"/>
     <col min="7" max="7" width="20.59765625" customWidth="1"/>
@@ -583,7 +605,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -594,175 +616,197 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="E6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f>SUM(D3:D21)</f>
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/外部修改檔案/Exam02.xlsx
+++ b/Assets/外部修改檔案/Exam02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C7E40-C85E-4650-9DF8-4D446274ED9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF568A45-4508-47AE-A030-067825993F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>醫療教案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>案主未掉落於地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施測前洗手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未於施測後再進行洗手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +298,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -298,9 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -587,7 +595,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -605,7 +613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -616,7 +624,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,7 +639,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -648,7 +656,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -663,7 +671,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -678,7 +686,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -693,7 +701,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -708,7 +716,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -723,7 +731,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -738,7 +746,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -753,7 +761,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -768,7 +776,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -783,29 +791,39 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>100</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22">
         <f>SUM(D3:D21)</f>
-        <v>218</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/外部修改檔案/Exam02.xlsx
+++ b/Assets/外部修改檔案/Exam02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF568A45-4508-47AE-A030-067825993F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E416E-66D8-4C40-9E09-A67CD9B8DD46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
